--- a/files/Step_7_apply_NLP_and_Random_Forest/dataset_random_forest_model.xlsx
+++ b/files/Step_7_apply_NLP_and_Random_Forest/dataset_random_forest_model.xlsx
@@ -11187,7 +11187,7 @@
         <v>4.31</v>
       </c>
       <c r="G256" t="n">
-        <v>392499</v>
+        <v>3858</v>
       </c>
       <c r="H256" t="n">
         <v>10.27</v>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>1.098091969661069e-05</v>
+        <v>0.001117159149818559</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>3.96</v>
       </c>
       <c r="G331" t="n">
-        <v>793821</v>
+        <v>7126</v>
       </c>
       <c r="H331" t="n">
         <v>6.39</v>
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="n">
-        <v>4.988530159821925e-06</v>
+        <v>0.0005557114790906539</v>
       </c>
       <c r="K331" t="n">
         <v>0</v>
@@ -14844,7 +14844,7 @@
         <v>15.2</v>
       </c>
       <c r="H343" t="n">
-        <v>10434</v>
+        <v>8</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
